--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed5/result_data_KNN.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.436</v>
+        <v>5.914</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.98</v>
+        <v>-12.244</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.662</v>
+        <v>16.715</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.348</v>
+        <v>16.789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.654</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.964</v>
+        <v>5.828</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.952</v>
+        <v>16.977</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.074</v>
+        <v>16.177</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.456</v>
+        <v>16.647</v>
       </c>
     </row>
     <row r="18">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.072</v>
+        <v>-12.46</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.74</v>
+        <v>-12.738</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.574</v>
+        <v>6.548</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.254</v>
+        <v>16.506</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.094</v>
+        <v>-21.531</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.868</v>
+        <v>-13.274</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.715999999999999</v>
+        <v>6.167999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.382</v>
+        <v>-21.495</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.128</v>
+        <v>7.342000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.994</v>
+        <v>-21.333</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.698</v>
+        <v>16.868</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.824000000000001</v>
+        <v>7.641</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.93</v>
+        <v>-20.363</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.944</v>
+        <v>-12.199</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.644</v>
+        <v>5.747</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.212</v>
+        <v>-21.591</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.126</v>
+        <v>-12.321</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.343999999999999</v>
+        <v>4.743</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.142</v>
+        <v>-21.585</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.825</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.732</v>
+        <v>-21.768</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.776</v>
+        <v>6.090000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.2</v>
+        <v>-13.289</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.178</v>
+        <v>17.254</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.6</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.608</v>
+        <v>-21.651</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.567</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-13.032</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.552</v>
+        <v>17.398</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.8</v>
+        <v>6.693</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.672</v>
+        <v>-20.489</v>
       </c>
       <c r="B83" t="n">
-        <v>7.964</v>
+        <v>7.256</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.282</v>
+        <v>-13.509</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.372</v>
+        <v>-22.292</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.214</v>
+        <v>-11.045</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.342</v>
+        <v>17.163</v>
       </c>
     </row>
     <row r="90">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.396</v>
+        <v>-21.768</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.964</v>
+        <v>-11.156</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.558</v>
+        <v>-11.166</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.138</v>
+        <v>-21.593</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.932</v>
+        <v>-13.109</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.18</v>
+        <v>-20.683</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.464</v>
+        <v>5.765</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>6.847999999999999</v>
+        <v>6.667</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.698</v>
+        <v>-12.798</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
